--- a/1_BM/Книга1.xlsx
+++ b/1_BM/Книга1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Учеба/7 сем/Прога/1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Учеба/7 сем/Прога/1_BM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4580C3C-A2D3-4C49-9AAC-3CAC0BB7B176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25980F1D-2167-B442-87D2-CC6FFAD9F7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{E90DB844-EE99-6A4B-A6F0-B9E4ECA16440}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E90DB844-EE99-6A4B-A6F0-B9E4ECA16440}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -318,22 +318,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>142.4</c:v>
+                  <c:v>149342.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244.8</c:v>
+                  <c:v>149818.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>558</c:v>
+                  <c:v>149884.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1164.4000000000001</c:v>
+                  <c:v>149927.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2331.4</c:v>
+                  <c:v>150061.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4246.3999999999996</c:v>
+                  <c:v>149922.79999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26036F76-0BF1-C241-B041-85ECBD7E583E}">
   <dimension ref="B3:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2907,22 +2907,22 @@
         <v>3256</v>
       </c>
       <c r="T39">
-        <v>236</v>
+        <v>149247</v>
       </c>
       <c r="U39">
-        <v>210</v>
+        <v>149927</v>
       </c>
       <c r="V39">
-        <v>546</v>
+        <v>149892</v>
       </c>
       <c r="W39">
-        <v>1038</v>
+        <v>149872</v>
       </c>
       <c r="X39">
-        <v>2652</v>
+        <v>150100</v>
       </c>
       <c r="Y39">
-        <v>4336</v>
+        <v>149965</v>
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.2">
@@ -2945,22 +2945,22 @@
         <v>3697</v>
       </c>
       <c r="T40">
-        <v>74</v>
+        <v>149414</v>
       </c>
       <c r="U40">
-        <v>108</v>
+        <v>149880</v>
       </c>
       <c r="V40">
-        <v>537</v>
+        <v>149828</v>
       </c>
       <c r="W40">
-        <v>968</v>
+        <v>149808</v>
       </c>
       <c r="X40">
-        <v>2719</v>
+        <v>150055</v>
       </c>
       <c r="Y40">
-        <v>5121</v>
+        <v>150002</v>
       </c>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.2">
@@ -2983,22 +2983,22 @@
         <v>3476</v>
       </c>
       <c r="T41">
-        <v>104</v>
+        <v>149259</v>
       </c>
       <c r="U41">
-        <v>695</v>
+        <v>149685</v>
       </c>
       <c r="V41">
-        <v>505</v>
+        <v>149975</v>
       </c>
       <c r="W41">
-        <v>1465</v>
+        <v>150062</v>
       </c>
       <c r="X41">
-        <v>1706</v>
+        <v>150005</v>
       </c>
       <c r="Y41">
-        <v>3294</v>
+        <v>149893</v>
       </c>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.2">
@@ -3021,22 +3021,22 @@
         <v>3046</v>
       </c>
       <c r="T42">
-        <v>197</v>
+        <v>149364</v>
       </c>
       <c r="U42">
-        <v>86</v>
+        <v>149844</v>
       </c>
       <c r="V42">
-        <v>598</v>
+        <v>149897</v>
       </c>
       <c r="W42">
-        <v>1081</v>
+        <v>149965</v>
       </c>
       <c r="X42" s="1">
-        <v>2484</v>
+        <v>150079</v>
       </c>
       <c r="Y42">
-        <v>4362</v>
+        <v>149850</v>
       </c>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.2">
@@ -3059,22 +3059,22 @@
         <v>2967</v>
       </c>
       <c r="T43">
-        <v>101</v>
+        <v>149427</v>
       </c>
       <c r="U43">
-        <v>125</v>
+        <v>149756</v>
       </c>
       <c r="V43">
-        <v>604</v>
+        <v>149832</v>
       </c>
       <c r="W43">
-        <v>1270</v>
+        <v>149931</v>
       </c>
       <c r="X43">
-        <v>2096</v>
+        <v>150067</v>
       </c>
       <c r="Y43">
-        <v>4119</v>
+        <v>149904</v>
       </c>
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.2">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="D48">
         <f>AVERAGE(T39:T43)</f>
-        <v>142.4</v>
+        <v>149342.20000000001</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="D49">
         <f>AVERAGE(U39:U43)</f>
-        <v>244.8</v>
+        <v>149818.4</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D50">
         <f>AVERAGE(V39:V43)</f>
-        <v>558</v>
+        <v>149884.79999999999</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="D51">
         <f>AVERAGE(W39:W43)</f>
-        <v>1164.4000000000001</v>
+        <v>149927.6</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D52">
         <f>AVERAGE(X39:X43)</f>
-        <v>2331.4</v>
+        <v>150061.20000000001</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D53">
         <f>AVERAGE(Y39:Y43)</f>
-        <v>4246.3999999999996</v>
+        <v>149922.79999999999</v>
       </c>
     </row>
   </sheetData>
